--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AlphaFiberF-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="AlphaFiberF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1046,7 +1046,7 @@
         <v>0.9918368383494247</v>
       </c>
       <c r="H15">
-        <v>0.9979576940704064</v>
+        <v>0.997957694070406</v>
       </c>
       <c r="I15">
         <v>0.9963872356812298</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9945577455224406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9971534375439213</v>
+      </c>
+      <c r="D16">
+        <v>1.00908493527576</v>
+      </c>
+      <c r="E16">
+        <v>0.9901014836435641</v>
+      </c>
+      <c r="F16">
+        <v>0.9971534375439213</v>
+      </c>
+      <c r="G16">
+        <v>1.001074986944671</v>
+      </c>
+      <c r="H16">
+        <v>0.9811833402172897</v>
+      </c>
+      <c r="I16">
+        <v>0.9918300717683775</v>
+      </c>
+      <c r="J16">
+        <v>1.00908493527576</v>
+      </c>
+      <c r="K16">
+        <v>0.9995932094596618</v>
+      </c>
+      <c r="L16">
+        <v>0.9983733235017915</v>
+      </c>
+      <c r="M16">
+        <v>0.9950713758989305</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9971534375439213</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
@@ -1049,7 +1049,7 @@
         <v>0.9918368383494247</v>
       </c>
       <c r="H15">
-        <v>0.997957694070406</v>
+        <v>0.9979576940704064</v>
       </c>
       <c r="I15">
         <v>0.9963872356812298</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9514679999999993</v>
+        <v>0.9971534375439213</v>
       </c>
       <c r="D10">
-        <v>1.058696000000002</v>
+        <v>1.00908493527576</v>
       </c>
       <c r="E10">
-        <v>0.991680000000001</v>
+        <v>0.9901014836435641</v>
       </c>
       <c r="F10">
-        <v>0.9514679999999993</v>
+        <v>0.9971534375439213</v>
       </c>
       <c r="G10">
-        <v>1.014340000000001</v>
+        <v>1.001074986944671</v>
       </c>
       <c r="H10">
-        <v>1.000455999999999</v>
+        <v>0.9811833402172897</v>
       </c>
       <c r="I10">
-        <v>0.9839719999999988</v>
+        <v>0.9918300717683775</v>
       </c>
       <c r="J10">
-        <v>1.058696000000002</v>
+        <v>1.00908493527576</v>
       </c>
       <c r="K10">
-        <v>1.025188000000002</v>
+        <v>0.9995932094596618</v>
       </c>
       <c r="L10">
-        <v>0.9883280000000004</v>
+        <v>0.9983733235017915</v>
       </c>
       <c r="M10">
-        <v>1.000102</v>
+        <v>0.9950713758989305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9437374999999978</v>
+        <v>0.9927223366655168</v>
       </c>
       <c r="D11">
-        <v>1.08</v>
+        <v>0.9249083018290688</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>1.020235861406623</v>
       </c>
       <c r="F11">
-        <v>0.9437374999999978</v>
+        <v>0.9927223366655168</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>0.9474159173647825</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.072736656152612</v>
       </c>
       <c r="I11">
-        <v>0.98</v>
+        <v>1.01522321488418</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>0.9249083018290688</v>
       </c>
       <c r="K11">
-        <v>1.035</v>
+        <v>0.972572081617846</v>
       </c>
       <c r="L11">
-        <v>0.9893687499999989</v>
+        <v>0.9826472091416815</v>
       </c>
       <c r="M11">
-        <v>1.002289583333333</v>
+        <v>0.9955403813837972</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9655193791488024</v>
+        <v>0.9925488203722663</v>
       </c>
       <c r="D12">
-        <v>1.044194979123195</v>
+        <v>0.9256919867919757</v>
       </c>
       <c r="E12">
-        <v>0.9918701789184027</v>
+        <v>1.020038855061651</v>
       </c>
       <c r="F12">
-        <v>0.9655193791488024</v>
+        <v>0.9925488203722663</v>
       </c>
       <c r="G12">
-        <v>1.0102409080832</v>
+        <v>0.9478694004288595</v>
       </c>
       <c r="H12">
-        <v>0.9970730475519978</v>
+        <v>1.072187902667471</v>
       </c>
       <c r="I12">
-        <v>0.9862887718912008</v>
+        <v>1.015015511375025</v>
       </c>
       <c r="J12">
-        <v>1.044194979123195</v>
+        <v>0.9256919867919757</v>
       </c>
       <c r="K12">
-        <v>1.018032579020799</v>
+        <v>0.9728654209268133</v>
       </c>
       <c r="L12">
-        <v>0.9917759790848006</v>
+        <v>0.9827071206495398</v>
       </c>
       <c r="M12">
-        <v>0.9991978774527998</v>
+        <v>0.9955587461162082</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9946215219084183</v>
+        <v>0.9926926996768924</v>
       </c>
       <c r="D13">
-        <v>0.9947559078995181</v>
+        <v>0.9251199895599582</v>
       </c>
       <c r="E13">
-        <v>0.994695668562918</v>
+        <v>1.020184540620353</v>
       </c>
       <c r="F13">
-        <v>0.9946215219084183</v>
+        <v>0.9926926996768924</v>
       </c>
       <c r="G13">
-        <v>0.9951444881825868</v>
+        <v>0.9475417974180247</v>
       </c>
       <c r="H13">
-        <v>0.9945641394354577</v>
+        <v>1.072575211627971</v>
       </c>
       <c r="I13">
-        <v>0.9947039883334201</v>
+        <v>1.015171191936765</v>
       </c>
       <c r="J13">
-        <v>0.9947559078995181</v>
+        <v>0.9251199895599582</v>
       </c>
       <c r="K13">
-        <v>0.994725788231218</v>
+        <v>0.9726522650901558</v>
       </c>
       <c r="L13">
-        <v>0.9946736550698182</v>
+        <v>0.9826724823835241</v>
       </c>
       <c r="M13">
-        <v>0.9947476190537198</v>
+        <v>0.995547571806661</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.997130688889636</v>
+        <v>0.9514679999999993</v>
       </c>
       <c r="D14">
-        <v>0.991010012114939</v>
+        <v>1.058696000000002</v>
       </c>
       <c r="E14">
-        <v>0.9941941151546674</v>
+        <v>0.991680000000001</v>
       </c>
       <c r="F14">
-        <v>0.997130688889636</v>
+        <v>0.9514679999999993</v>
       </c>
       <c r="G14">
-        <v>0.9937293683867972</v>
+        <v>1.014340000000001</v>
       </c>
       <c r="H14">
-        <v>0.9942718202339605</v>
+        <v>1.000455999999999</v>
       </c>
       <c r="I14">
-        <v>0.9948219014553198</v>
+        <v>0.9839719999999988</v>
       </c>
       <c r="J14">
-        <v>0.991010012114939</v>
+        <v>1.058696000000002</v>
       </c>
       <c r="K14">
-        <v>0.9926020636348032</v>
+        <v>1.025188000000002</v>
       </c>
       <c r="L14">
-        <v>0.9948663762622195</v>
+        <v>0.9883280000000004</v>
       </c>
       <c r="M14">
-        <v>0.9941929843725533</v>
+        <v>1.000102</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9966918028239566</v>
+        <v>0.9437374999999978</v>
       </c>
       <c r="D15">
-        <v>0.9886969980975101</v>
+        <v>1.08</v>
       </c>
       <c r="E15">
-        <v>0.995775904112116</v>
+        <v>0.99</v>
       </c>
       <c r="F15">
-        <v>0.9966918028239566</v>
+        <v>0.9437374999999978</v>
       </c>
       <c r="G15">
-        <v>0.9918368383494247</v>
+        <v>1.02</v>
       </c>
       <c r="H15">
-        <v>0.9979576940704064</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9963872356812298</v>
+        <v>0.98</v>
       </c>
       <c r="J15">
-        <v>0.9886969980975101</v>
+        <v>1.08</v>
       </c>
       <c r="K15">
-        <v>0.9922364511048131</v>
+        <v>1.035</v>
       </c>
       <c r="L15">
-        <v>0.9944641269643848</v>
+        <v>0.9893687499999989</v>
       </c>
       <c r="M15">
-        <v>0.9945577455224406</v>
+        <v>1.002289583333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9971534375439213</v>
+        <v>0.9655193791488024</v>
       </c>
       <c r="D16">
-        <v>1.00908493527576</v>
+        <v>1.044194979123195</v>
       </c>
       <c r="E16">
-        <v>0.9901014836435641</v>
+        <v>0.9918701789184027</v>
       </c>
       <c r="F16">
-        <v>0.9971534375439213</v>
+        <v>0.9655193791488024</v>
       </c>
       <c r="G16">
-        <v>1.001074986944671</v>
+        <v>1.0102409080832</v>
       </c>
       <c r="H16">
-        <v>0.9811833402172897</v>
+        <v>0.9970730475519978</v>
       </c>
       <c r="I16">
-        <v>0.9918300717683775</v>
+        <v>0.9862887718912008</v>
       </c>
       <c r="J16">
-        <v>1.00908493527576</v>
+        <v>1.044194979123195</v>
       </c>
       <c r="K16">
-        <v>0.9995932094596618</v>
+        <v>1.018032579020799</v>
       </c>
       <c r="L16">
-        <v>0.9983733235017915</v>
+        <v>0.9917759790848006</v>
       </c>
       <c r="M16">
-        <v>0.9950713758989305</v>
+        <v>0.9991978774527998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9946215219084183</v>
+      </c>
+      <c r="D17">
+        <v>0.9947559078995181</v>
+      </c>
+      <c r="E17">
+        <v>0.994695668562918</v>
+      </c>
+      <c r="F17">
+        <v>0.9946215219084183</v>
+      </c>
+      <c r="G17">
+        <v>0.9951444881825868</v>
+      </c>
+      <c r="H17">
+        <v>0.9945641394354577</v>
+      </c>
+      <c r="I17">
+        <v>0.9947039883334201</v>
+      </c>
+      <c r="J17">
+        <v>0.9947559078995181</v>
+      </c>
+      <c r="K17">
+        <v>0.994725788231218</v>
+      </c>
+      <c r="L17">
+        <v>0.9946736550698182</v>
+      </c>
+      <c r="M17">
+        <v>0.9947476190537198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.997130688889636</v>
+      </c>
+      <c r="D18">
+        <v>0.991010012114939</v>
+      </c>
+      <c r="E18">
+        <v>0.9941941151546674</v>
+      </c>
+      <c r="F18">
+        <v>0.997130688889636</v>
+      </c>
+      <c r="G18">
+        <v>0.9937293683867972</v>
+      </c>
+      <c r="H18">
+        <v>0.9942718202339605</v>
+      </c>
+      <c r="I18">
+        <v>0.9948219014553198</v>
+      </c>
+      <c r="J18">
+        <v>0.991010012114939</v>
+      </c>
+      <c r="K18">
+        <v>0.9926020636348032</v>
+      </c>
+      <c r="L18">
+        <v>0.9948663762622195</v>
+      </c>
+      <c r="M18">
+        <v>0.9941929843725533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9966918028239566</v>
+      </c>
+      <c r="D19">
+        <v>0.9886969980975101</v>
+      </c>
+      <c r="E19">
+        <v>0.995775904112116</v>
+      </c>
+      <c r="F19">
+        <v>0.9966918028239566</v>
+      </c>
+      <c r="G19">
+        <v>0.9918368383494247</v>
+      </c>
+      <c r="H19">
+        <v>0.997957694070406</v>
+      </c>
+      <c r="I19">
+        <v>0.9963872356812298</v>
+      </c>
+      <c r="J19">
+        <v>0.9886969980975101</v>
+      </c>
+      <c r="K19">
+        <v>0.9922364511048131</v>
+      </c>
+      <c r="L19">
+        <v>0.9944641269643848</v>
+      </c>
+      <c r="M19">
+        <v>0.9945577455224406</v>
       </c>
     </row>
   </sheetData>
